--- a/James Moir Efforts Logbook.xlsx
+++ b/James Moir Efforts Logbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\Senior Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\CSI 4999 - Senior Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED496C7F-44FE-44B1-8EE5-D3344A4DDEF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E8511C53-8BF1-42E2-8F63-345B070E791C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -163,6 +163,52 @@
     <t>Requirements: pages 1-2
 Course Project Report: pages: 3 - 8
 Slides: 1, 6, 7, 10-13</t>
+  </si>
+  <si>
+    <t>James Moir</t>
+  </si>
+  <si>
+    <t>Bought domain name collegebazaar.shop . Created list of diagram requirements. Created multiple sequence diagrams. Did research on connection requirements for VMS. Set up Debian VM for Apache server in future sprints. Assisted in the creation of Sprint 2 presentation.</t>
+  </si>
+  <si>
+    <t>B, C, D, E, F, I, K, L, M, N</t>
+  </si>
+  <si>
+    <t>Github Branch:
+James
+Diagrams:
+edit post.png, load post.png, ban user.png, password change.png, post removal.png, promote user.png, send IM.png,Ssh connection.png, update user info.png, user demotion.png
+Screenshot of VM
+VM Instance.png</t>
+  </si>
+  <si>
+    <t>edit post
+load post
+ban user
+password change
+post removal
+promote user
+send IM
+Ssh connection
+update user info
+user demotion
+VM Instance</t>
+  </si>
+  <si>
+    <t>Presentation: slide 12
+Apache VM Screenshot
+Sequence diagrams: 
+edit post
+load post
+ban user
+password change
+post removal
+promote user
+send IM
+SSH Connection
+update user info
+user demotion
+VM instance</t>
   </si>
 </sst>
 </file>
@@ -319,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,6 +400,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -373,18 +434,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H4:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -692,46 +741,46 @@
     <col min="3" max="3" width="13.6484375" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="6" width="22.34765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.75" customWidth="1"/>
     <col min="7" max="7" width="16.1484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="41.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
@@ -752,10 +801,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="140.4" x14ac:dyDescent="0.6">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="12">
         <v>8</v>
       </c>
@@ -775,23 +824,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:8" ht="296.39999999999998" x14ac:dyDescent="0.6">
+      <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="6">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="3"/>
@@ -800,10 +861,10 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3"/>
@@ -812,10 +873,10 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="3"/>
@@ -824,10 +885,10 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
@@ -836,10 +897,10 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
@@ -848,10 +909,10 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="3"/>
@@ -901,6 +962,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -910,11 +976,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -938,68 +999,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" ht="41.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">

--- a/James Moir Efforts Logbook.xlsx
+++ b/James Moir Efforts Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\CSI 4999 - Senior Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E8511C53-8BF1-42E2-8F63-345B070E791C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5F5BCC3F-C64F-469C-8B14-BC14D9827FBF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Objectives</t>
-  </si>
-  <si>
-    <t>Example Template</t>
   </si>
   <si>
     <t>Your Name</t>
@@ -209,6 +206,41 @@
 update user info
 user demotion
 VM instance</t>
+  </si>
+  <si>
+    <t>College Bazaar</t>
+  </si>
+  <si>
+    <t>Purchased and configured static IP for Apache server. Site configured to automatically load index.html. Test HTML files created and confirmed to be working. Created MYSQL VM. Created SSH keys for secure remote access. Created GCP DNS zone. Added website to GCP DNS zone. Changed GoDaddy domain nameserver to match GCP. Tested and confirmed domain name routing. Configured GCP DNS zone to cloudbric's for increased security. Created and updated sprint presentation. Did extensive research on work done and future work to ensure that best practice was followed.</t>
+  </si>
+  <si>
+    <t>GoDaddy NS.PNG
+Google MySQL VM.PNG
+Google NS.PNG
+Google SSH Key.PNG
+Research - Configuring Apache.txt
+Research - Connect Ubuntu to MySQL DB.txt
+Research - Forcing SSL on VM.txt
+Research - GCP and GoDaddy NS Integration.txt
+Research - Godaddy NS connection metrics.txt
+Research - How to Configure GoDaddy NS.txt 
+Research - MySQL connection methods.txt
+Static IP.PNG
+Presentation.pptx</t>
+  </si>
+  <si>
+    <t>Presentation: slides 4,5
+Research txt files
+Screenshot of configuration changes</t>
+  </si>
+  <si>
+    <t>Github Branch:
+James
+---
+Moodle submission zip file</t>
+  </si>
+  <si>
+    <t>A, B, C, D, E, F, H, I, J, M, N</t>
   </si>
 </sst>
 </file>
@@ -365,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -400,53 +432,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -748,11 +783,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -766,7 +801,7 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="23" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="25"/>
@@ -778,7 +813,7 @@
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
@@ -800,69 +835,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="140.4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="12">
         <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="296.39999999999998" x14ac:dyDescent="0.6">
+    </row>
+    <row r="5" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="202.8" x14ac:dyDescent="0.6">
+      <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="6">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A6" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A7" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
@@ -874,7 +921,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A8" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="6"/>
@@ -886,7 +933,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A9" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="6"/>
@@ -898,7 +945,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A10" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="6"/>
@@ -910,7 +957,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
@@ -1000,11 +1047,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A1" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -1026,7 +1073,7 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -1064,7 +1111,7 @@
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>

--- a/James Moir Efforts Logbook.xlsx
+++ b/James Moir Efforts Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\CSI 4999 - Senior Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5F5BCC3F-C64F-469C-8B14-BC14D9827FBF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF90EEBE-A9F0-41D0-B272-AE29D7BAD960}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Team Member</t>
   </si>
   <si>
-    <t>Joe, Smith</t>
-  </si>
-  <si>
     <t>Towards objectives</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
   </si>
   <si>
     <t>Sprint # 8</t>
-  </si>
-  <si>
-    <t>Example Project</t>
   </si>
   <si>
     <t xml:space="preserve">B, C, D, E, F, K, M, N </t>
@@ -240,16 +234,52 @@
 Moodle submission zip file</t>
   </si>
   <si>
-    <t>A, B, C, D, E, F, H, I, J, M, N</t>
+    <t>dir.conf
+000-default.conf
+apache2.conf
+config.inc.php
+headers.php
+index.php
+miscellaneous .sql files that cannot be exported securely (user data)
+Research - configure mysql user accounts.txt
+Research - phpmyadmin 404 error fix.txt
+Research - Set up phpmyadmin and mysql.txt
+Research - sshd_config parameters explained.txt</t>
+  </si>
+  <si>
+    <t>Researched best practice for web server size to need for separate mysql vm. Decided to consolidate both needs to one VM. Installed mysql server, mysql client, php and phpmyadmin. Configured these systems including increased security measures (no passwordless accounts, a different admin account other than root, disabled root, etc.). Made phpmyadmin a navigatable page via\phpmyadmin. Altered .php files to ensure operation on the web server. Updated presentation and coordinated work with group. Performed live demo of website.</t>
+  </si>
+  <si>
+    <t>Presentation: slides 10-13
+research txt files
+configuration files
+php files
+files done.txt</t>
+  </si>
+  <si>
+    <t>B, C, D, E, F, H, I, J, M, N</t>
+  </si>
+  <si>
+    <t>B, C, D, E, F, H, I, J, K, L, M, N</t>
+  </si>
+  <si>
+    <t>James moir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -294,8 +324,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +374,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,36 +451,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,56 +490,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -782,45 +851,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="41.05" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="17"/>
+      <c r="A3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -836,94 +905,106 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="11">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="12">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="13">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="15" t="s">
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="187.5" x14ac:dyDescent="0.6">
+      <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="30">
+        <v>20</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="202.8" x14ac:dyDescent="0.6">
-      <c r="A6" s="15" t="s">
+      <c r="F6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="171.6" x14ac:dyDescent="0.6">
+      <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="6">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="6">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="3"/>
@@ -932,10 +1013,10 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="15"/>
+      <c r="A9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="22"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
@@ -944,10 +1025,10 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="15"/>
+      <c r="A10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="22"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
@@ -956,10 +1037,10 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="22"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="3"/>
@@ -1009,11 +1090,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -1023,8 +1099,14 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1032,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1047,11 +1129,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A1" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="28" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -1068,32 +1150,32 @@
       <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" ht="41.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1111,263 +1193,351 @@
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>6</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>5</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="33">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33">
+        <v>5</v>
+      </c>
+      <c r="E6" s="33">
+        <v>5</v>
+      </c>
+      <c r="F6" s="33">
+        <v>5</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1</v>
+      </c>
+      <c r="H6" s="33">
+        <v>1</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33">
+        <v>5</v>
+      </c>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33">
+        <v>1</v>
+      </c>
+      <c r="P6" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="33">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33">
+        <v>4</v>
+      </c>
+      <c r="E7" s="33">
+        <v>5</v>
+      </c>
+      <c r="F7" s="33">
+        <v>4</v>
+      </c>
+      <c r="G7" s="33">
+        <v>1</v>
+      </c>
+      <c r="H7" s="33">
+        <v>1</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33">
+        <v>4</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33">
+        <v>6</v>
+      </c>
+      <c r="N7" s="33">
+        <v>4</v>
+      </c>
+      <c r="O7" s="33">
+        <v>1</v>
+      </c>
+      <c r="P7" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="33">
+        <v>3</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="E8" s="33">
+        <v>6</v>
+      </c>
+      <c r="F8" s="33">
+        <v>6</v>
+      </c>
+      <c r="G8" s="33">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33">
+        <v>1</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33">
+        <v>7</v>
+      </c>
+      <c r="K8" s="33">
+        <v>5</v>
+      </c>
+      <c r="L8" s="33">
+        <v>5</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33">
+        <v>1</v>
+      </c>
+      <c r="P8" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="34">
+        <v>4</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34">
+        <v>9</v>
+      </c>
+      <c r="E9" s="34">
+        <v>10</v>
+      </c>
+      <c r="F9" s="34">
+        <v>5</v>
+      </c>
+      <c r="G9" s="34">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="H9" s="34">
+        <v>1</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34">
+        <v>4</v>
+      </c>
+      <c r="K9" s="34">
+        <v>6</v>
+      </c>
+      <c r="L9" s="34">
+        <v>6</v>
+      </c>
+      <c r="M9" s="34">
+        <v>4</v>
+      </c>
+      <c r="N9" s="34">
         <v>3</v>
       </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="O9" s="34">
+        <v>1</v>
+      </c>
+      <c r="P9" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="34">
         <v>5</v>
       </c>
-      <c r="H5" s="9">
-        <v>2</v>
-      </c>
-      <c r="I5" s="9">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9">
-        <v>2</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+    </row>
+    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="34">
         <v>6</v>
       </c>
-      <c r="L5" s="9">
-        <v>3</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9">
-        <v>1</v>
-      </c>
-      <c r="O5" s="9">
-        <v>5</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="8">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="8">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="8">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="8">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="8">
+      <c r="A12" s="34">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="8">
+      <c r="A13" s="34">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
